--- a/biology/Zoologie/Diplectanidae/Diplectanidae.xlsx
+++ b/biology/Zoologie/Diplectanidae/Diplectanidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Diplectanidae sont une famille de monogènes créée par le zoologiste italien Francesco Saverio Monticelli (d) (1863-1927) en 1903[1] comme sous-famille Diplectaninae.
-Le statut de la famille et des genres qui y sont inclus a été ensuite étudié par Johnston &amp; Tiegs (1922)[2], Price (1937)[3], Bychowsky (1957)[4], Yamaguti (1963)[5], et Oliver (1987)[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Diplectanidae sont une famille de monogènes créée par le zoologiste italien Francesco Saverio Monticelli (d) (1863-1927) en 1903 comme sous-famille Diplectaninae.
+Le statut de la famille et des genres qui y sont inclus a été ensuite étudié par Johnston &amp; Tiegs (1922), Price (1937), Bychowsky (1957), Yamaguti (1963), et Oliver (1987).
 Les Diplectanidae sont tous des parasites de poissons, la plupart du temps sur les branchies.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ces trois caractères sont retrouvés chez tous les Diplectanidae :
 présence d'organes adhésifs accessoires sur les faces dorsale et  ventrale du hapteur, appelés squamodisques quand ils sont constitués de bâtonnets et lamellodisques quand ils sont formés de lamelles ;
@@ -546,44 +560,46 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres reconnus par WoRMS[8] sont :
-Acanthocercodes Kritsky &amp; Diggles, 2015 [9]
-Acleotrema Johnston &amp; Tiegs, 1922 [10]
-Aetheolabes Boeger &amp; Kritsky, 2009 [11]
-Anoplectanum Boeger, Fehlauer &amp; Marques, 2006 [12]
-Calydiscoides Young, 1969 [13]
-Darwinoplectanum Domingues, Diamanka &amp; Pariselle, 2011 [14]
-Diplectanocotyla Yamaguti, 1953 [15]
-Diplectanum Diesing, 1858 [16]
-Echinoplectanum Justine &amp; Euzet, 2006 [17]
-Furcohaptor Bijukumar &amp; Kearn, 1996 [18]
-Lamellodiscus Johnston &amp; Tiegs, 1922 [10]
-Latericaecum Young, 1969 [13]
-Laticola Yang, Kritsky, Sun, Zhang, Shi &amp; Agrawal, 2006 [19]
-Lepidotrema Johnston &amp; Tiegs, 1922 [10]
-Lobotrema Tripathi, 1959 [20]
-Monoplectanum Young, 1969 [13]
-Murraytrema Price, 1937 [3]
-Murraytrematoides Yamaguti, 1958 [21]
-Nasobranchitrema Yamaguti, 1965 [22]
-Neodiplectanum Mizelle &amp; Blatz, 1941 [23]
-Oliveriplectanum Domingues &amp; Boeger, 2008 [24]
-Paradiplectanum Domingues &amp; Boeger, 2008 [24]
-Protolamellodiscus Oliver, 1969 [25]
-Pseudodiplectanum Tripathi, 1955 [26]
-Pseudolamellodiscus Yamaguti, 1953 [15],[27]
-Pseudomurraytrematoides Domingues &amp; Boeger, 2008 [24]
-Pseudorhabdosynochus Yamaguti, 1958 [21]
-Pseudorhamnocercoides Chero, Cruces, Sáez, Iannacone &amp; Luque, 2017 [28]
-Rhabdosynochus Mizelle &amp; Blatz, 1941 [23]
-Rhamnocercoides Luque &amp; Iannacone, 1991 [29]
-Rhamnocercus Monaco, Wood &amp; Mizelle, 1954 [30]
-Sinodiplectanotrema Zhang in Zhang, Yang &amp; Liu, 2001 [31]
-Spinomatrix Boeger, Fehlauer &amp; Marques, 2006 [12]
-Telegamatrix Ramalingam, 1955 [32]
-Teraplectanum Lim, 2015 [33]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres reconnus par WoRMS sont :
+Acanthocercodes Kritsky &amp; Diggles, 2015 
+Acleotrema Johnston &amp; Tiegs, 1922 
+Aetheolabes Boeger &amp; Kritsky, 2009 
+Anoplectanum Boeger, Fehlauer &amp; Marques, 2006 
+Calydiscoides Young, 1969 
+Darwinoplectanum Domingues, Diamanka &amp; Pariselle, 2011 
+Diplectanocotyla Yamaguti, 1953 
+Diplectanum Diesing, 1858 
+Echinoplectanum Justine &amp; Euzet, 2006 
+Furcohaptor Bijukumar &amp; Kearn, 1996 
+Lamellodiscus Johnston &amp; Tiegs, 1922 
+Latericaecum Young, 1969 
+Laticola Yang, Kritsky, Sun, Zhang, Shi &amp; Agrawal, 2006 
+Lepidotrema Johnston &amp; Tiegs, 1922 
+Lobotrema Tripathi, 1959 
+Monoplectanum Young, 1969 
+Murraytrema Price, 1937 
+Murraytrematoides Yamaguti, 1958 
+Nasobranchitrema Yamaguti, 1965 
+Neodiplectanum Mizelle &amp; Blatz, 1941 
+Oliveriplectanum Domingues &amp; Boeger, 2008 
+Paradiplectanum Domingues &amp; Boeger, 2008 
+Protolamellodiscus Oliver, 1969 
+Pseudodiplectanum Tripathi, 1955 
+Pseudolamellodiscus Yamaguti, 1953 ,
+Pseudomurraytrematoides Domingues &amp; Boeger, 2008 
+Pseudorhabdosynochus Yamaguti, 1958 
+Pseudorhamnocercoides Chero, Cruces, Sáez, Iannacone &amp; Luque, 2017 
+Rhabdosynochus Mizelle &amp; Blatz, 1941 
+Rhamnocercoides Luque &amp; Iannacone, 1991 
+Rhamnocercus Monaco, Wood &amp; Mizelle, 1954 
+Sinodiplectanotrema Zhang in Zhang, Yang &amp; Liu, 2001 
+Spinomatrix Boeger, Fehlauer &amp; Marques, 2006 
+Telegamatrix Ramalingam, 1955 
+Teraplectanum Lim, 2015 
 </t>
         </is>
       </c>
